--- a/DOM_Banner/output/dept_banner/Avin Aggarwal_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Avin Aggarwal_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Center for Digestive Health, Virginia Mason Franciscan Health; Center for Digestive Health, Virginia Mason Franciscan Health; Division of Gastroenterology and Hepatology, University of Maryland School of Medicine, Baltimore, MD; Department of Gastroenterology, Cedar Valley Medical Specialists, Waterloo, IA; Division of Gastroenterology and Hepatology, University of Louisville School of Medicine, Louisville, KY; Division of Gastroenterology, Mayo Clinic, Rochester, MN; University of Washington School of Medicine, Seattle, WA; Parkview Cancer Institute, Fort Wayne, IN; Division of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ; Division of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ; Center for Digestive Health, Virginia Mason Franciscan Health</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318967491</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Endoscopic Full Thickness Resection of Upper Gastrointestinal Lesions Using a Full Thickness Resection Device</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Gastroenterology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mcg.0000000000001803</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36730483</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mcg.0000000000001803</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316077164</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>S329 Comparison of the Effect of a Positive Stool DNA Test on Mucosal Inspection Time to Average Risk Screening Colonoscopy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000857956.82061.2b</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000857956.82061.2b</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; University Texas Rio Grande Valley, Edinburg, TX.; University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316078569</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>S3686 Unusual Presentation of Immunoglobulin Light Chain (AL) Amyloidosis as a Gastric Subepithelial Lesion</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000871384.77098.49</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000871384.77098.49</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316078727</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>S1809 Portal Cavernoma Cholangiopathy Presenting With Acute Cholangitis</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000863876.69703.d5</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000863876.69703.d5</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316081473</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>S3178 Tips for a Heartbreak: Hepatic Hydropericardium Improves After Transhepatic Portosystemic Shunt Placement</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000869352.38064.5d</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000869352.38064.5d</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316086271</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>S2640 Rectal Dieulafoy's Lesion Presenting as Massive Hematochezia With a Characteristic Endoscopic Appearance</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000867200.32382.8f</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000867200.32382.8f</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
